--- a/Global_M2/TVDataFeed/FinalData/FX_Data/Philippines_FX.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/FX_Data/Philippines_FX.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G373"/>
+  <dimension ref="A1:G376"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9764,15 +9764,90 @@
         <v>54.266</v>
       </c>
       <c r="D373" t="n">
-        <v>55.105</v>
+        <v>56.469</v>
       </c>
       <c r="E373" t="n">
         <v>54.266</v>
       </c>
       <c r="F373" t="n">
-        <v>55.02</v>
+        <v>55.47</v>
       </c>
       <c r="G373" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" s="2" t="n">
+        <v>45047.33333333334</v>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>FX_IDC:USDPHP</t>
+        </is>
+      </c>
+      <c r="C374" t="n">
+        <v>55.34</v>
+      </c>
+      <c r="D374" t="n">
+        <v>56.425</v>
+      </c>
+      <c r="E374" t="n">
+        <v>55.17</v>
+      </c>
+      <c r="F374" t="n">
+        <v>56.353</v>
+      </c>
+      <c r="G374" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" s="2" t="n">
+        <v>45078.33333333334</v>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>FX_IDC:USDPHP</t>
+        </is>
+      </c>
+      <c r="C375" t="n">
+        <v>56.353</v>
+      </c>
+      <c r="D375" t="n">
+        <v>56.353</v>
+      </c>
+      <c r="E375" t="n">
+        <v>55.088</v>
+      </c>
+      <c r="F375" t="n">
+        <v>55.264</v>
+      </c>
+      <c r="G375" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" s="2" t="n">
+        <v>45110.33333333334</v>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>FX_IDC:USDPHP</t>
+        </is>
+      </c>
+      <c r="C376" t="n">
+        <v>55.264</v>
+      </c>
+      <c r="D376" t="n">
+        <v>55.675</v>
+      </c>
+      <c r="E376" t="n">
+        <v>55.06</v>
+      </c>
+      <c r="F376" t="n">
+        <v>55.52</v>
+      </c>
+      <c r="G376" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Global_M2/TVDataFeed/FinalData/FX_Data/Philippines_FX.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/FX_Data/Philippines_FX.xlsx
@@ -9839,13 +9839,13 @@
         <v>55.264</v>
       </c>
       <c r="D376" t="n">
-        <v>55.675</v>
+        <v>55.718</v>
       </c>
       <c r="E376" t="n">
-        <v>55.06</v>
+        <v>54.31</v>
       </c>
       <c r="F376" t="n">
-        <v>55.52</v>
+        <v>54.32</v>
       </c>
       <c r="G376" t="n">
         <v>0</v>

--- a/Global_M2/TVDataFeed/FinalData/FX_Data/Philippines_FX.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/FX_Data/Philippines_FX.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G376"/>
+  <dimension ref="A1:G377"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -753,7 +753,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>34060.33333333334</v>
+        <v>34060.375</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>34425.33333333334</v>
+        <v>34425.375</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -1203,7 +1203,7 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>34610.33333333334</v>
+        <v>34610.375</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -1503,7 +1503,7 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>34974.33333333334</v>
+        <v>34974.375</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -1653,7 +1653,7 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>35156.33333333334</v>
+        <v>35156.375</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -1953,7 +1953,7 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>35521.33333333334</v>
+        <v>35521.375</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
@@ -2253,7 +2253,7 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>35886.33333333334</v>
+        <v>35886.375</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
@@ -2553,7 +2553,7 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>36251.33333333334</v>
+        <v>36251.375</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
@@ -2978,7 +2978,7 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>36770.375</v>
+        <v>36770.33333333334</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
@@ -3453,7 +3453,7 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
-        <v>37347.33333333334</v>
+        <v>37347.375</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
@@ -3753,7 +3753,7 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
-        <v>37712.33333333334</v>
+        <v>37712.375</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
@@ -4053,7 +4053,7 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
-        <v>38078.33333333334</v>
+        <v>38078.375</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
@@ -4353,7 +4353,7 @@
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
-        <v>38443.33333333334</v>
+        <v>38443.375</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
@@ -4503,7 +4503,7 @@
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
-        <v>38628.33333333334</v>
+        <v>38628.375</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
@@ -4803,7 +4803,7 @@
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
-        <v>38992.33333333334</v>
+        <v>38992.375</v>
       </c>
       <c r="B175" t="inlineStr">
         <is>
@@ -9845,9 +9845,34 @@
         <v>54.31</v>
       </c>
       <c r="F376" t="n">
-        <v>54.32</v>
+        <v>54.91</v>
       </c>
       <c r="G376" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" s="2" t="n">
+        <v>45139.33333333334</v>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>FX_IDC:USDPHP</t>
+        </is>
+      </c>
+      <c r="C377" t="n">
+        <v>54.91</v>
+      </c>
+      <c r="D377" t="n">
+        <v>55.74</v>
+      </c>
+      <c r="E377" t="n">
+        <v>54.72</v>
+      </c>
+      <c r="F377" t="n">
+        <v>55.68</v>
+      </c>
+      <c r="G377" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Global_M2/TVDataFeed/FinalData/FX_Data/Philippines_FX.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/FX_Data/Philippines_FX.xlsx
@@ -753,7 +753,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>34060.375</v>
+        <v>34060.33333333334</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>34425.375</v>
+        <v>34425.33333333334</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -1203,7 +1203,7 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>34610.375</v>
+        <v>34610.33333333334</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -1503,7 +1503,7 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>34974.375</v>
+        <v>34974.33333333334</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -1653,7 +1653,7 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>35156.375</v>
+        <v>35156.33333333334</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -1953,7 +1953,7 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>35521.375</v>
+        <v>35521.33333333334</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
@@ -2253,7 +2253,7 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>35886.375</v>
+        <v>35886.33333333334</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
@@ -2553,7 +2553,7 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>36251.375</v>
+        <v>36251.33333333334</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
@@ -2978,7 +2978,7 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>36770.33333333334</v>
+        <v>36770.375</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
@@ -3453,7 +3453,7 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
-        <v>37347.375</v>
+        <v>37347.33333333334</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
@@ -3753,7 +3753,7 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
-        <v>37712.375</v>
+        <v>37712.33333333334</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
@@ -4053,7 +4053,7 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
-        <v>38078.375</v>
+        <v>38078.33333333334</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
@@ -4353,7 +4353,7 @@
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
-        <v>38443.375</v>
+        <v>38443.33333333334</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
@@ -4503,7 +4503,7 @@
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
-        <v>38628.375</v>
+        <v>38628.33333333334</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
@@ -4803,7 +4803,7 @@
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
-        <v>38992.375</v>
+        <v>38992.33333333334</v>
       </c>
       <c r="B175" t="inlineStr">
         <is>
@@ -9864,13 +9864,13 @@
         <v>54.91</v>
       </c>
       <c r="D377" t="n">
-        <v>55.74</v>
+        <v>56.95</v>
       </c>
       <c r="E377" t="n">
         <v>54.72</v>
       </c>
       <c r="F377" t="n">
-        <v>55.68</v>
+        <v>56.76</v>
       </c>
       <c r="G377" t="n">
         <v>0</v>

--- a/Global_M2/TVDataFeed/FinalData/FX_Data/Philippines_FX.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/FX_Data/Philippines_FX.xlsx
@@ -9870,7 +9870,7 @@
         <v>54.72</v>
       </c>
       <c r="F377" t="n">
-        <v>56.76</v>
+        <v>56.72</v>
       </c>
       <c r="G377" t="n">
         <v>0</v>

--- a/Global_M2/TVDataFeed/FinalData/FX_Data/Philippines_FX.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/FX_Data/Philippines_FX.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G377"/>
+  <dimension ref="A1:G380"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9870,9 +9870,84 @@
         <v>54.72</v>
       </c>
       <c r="F377" t="n">
-        <v>56.72</v>
+        <v>56.64</v>
       </c>
       <c r="G377" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" s="2" t="n">
+        <v>45170.33333333334</v>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>FX_IDC:USDPHP</t>
+        </is>
+      </c>
+      <c r="C378" t="n">
+        <v>56.6</v>
+      </c>
+      <c r="D378" t="n">
+        <v>57.141</v>
+      </c>
+      <c r="E378" t="n">
+        <v>56.48</v>
+      </c>
+      <c r="F378" t="n">
+        <v>56.69</v>
+      </c>
+      <c r="G378" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" s="2" t="n">
+        <v>45201.375</v>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>FX_IDC:USDPHP</t>
+        </is>
+      </c>
+      <c r="C379" t="n">
+        <v>56.69</v>
+      </c>
+      <c r="D379" t="n">
+        <v>57.04</v>
+      </c>
+      <c r="E379" t="n">
+        <v>56.58</v>
+      </c>
+      <c r="F379" t="n">
+        <v>56.865</v>
+      </c>
+      <c r="G379" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" s="2" t="n">
+        <v>45231.375</v>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>FX_IDC:USDPHP</t>
+        </is>
+      </c>
+      <c r="C380" t="n">
+        <v>56.865</v>
+      </c>
+      <c r="D380" t="n">
+        <v>56.865</v>
+      </c>
+      <c r="E380" t="n">
+        <v>55.77</v>
+      </c>
+      <c r="F380" t="n">
+        <v>55.95</v>
+      </c>
+      <c r="G380" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Global_M2/TVDataFeed/FinalData/FX_Data/Philippines_FX.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/FX_Data/Philippines_FX.xlsx
@@ -9942,10 +9942,10 @@
         <v>56.865</v>
       </c>
       <c r="E380" t="n">
-        <v>55.77</v>
+        <v>55.49</v>
       </c>
       <c r="F380" t="n">
-        <v>55.95</v>
+        <v>55.5</v>
       </c>
       <c r="G380" t="n">
         <v>0</v>

--- a/Global_M2/TVDataFeed/FinalData/FX_Data/Philippines_FX.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/FX_Data/Philippines_FX.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="8">
   <si>
     <t>symbol</t>
   </si>
@@ -401,7 +401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G380"/>
+  <dimension ref="A1:G381"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -9138,12 +9138,35 @@
         <v>56.865</v>
       </c>
       <c r="E380">
-        <v>55.32</v>
+        <v>55.3</v>
       </c>
       <c r="F380">
-        <v>55.47</v>
+        <v>55.46</v>
       </c>
       <c r="G380">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="381" spans="1:7">
+      <c r="A381" s="2">
+        <v>45261.375</v>
+      </c>
+      <c r="B381" t="s">
+        <v>7</v>
+      </c>
+      <c r="C381">
+        <v>55.46</v>
+      </c>
+      <c r="D381">
+        <v>55.54</v>
+      </c>
+      <c r="E381">
+        <v>55.25</v>
+      </c>
+      <c r="F381">
+        <v>55.31</v>
+      </c>
+      <c r="G381">
         <v>0</v>
       </c>
     </row>
